--- a/data/data_monitoreo_la_colorada.xlsx
+++ b/data/data_monitoreo_la_colorada.xlsx
@@ -448,81 +448,81 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>SENADOR ARBOLEDA GIANCARLOS EXEBIO</t>
+          <t>ROMERO CHANAME YOSSELY TRINIDAD</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>22</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>BALLENA ESQUÉN ASTRID CAROLINA</t>
+          <t>ZAVALETA MANAY JORGE LUIS</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>ROMERO CHANAME YOSSELY TRINIDAD</t>
+          <t>HIDALGO CUBAS LUISA YVONE</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>20</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>CONTRERAS VALDERRAMA JULIA ALEJANDRA</t>
+          <t>SENADOR ARBOLEDA GIANCARLOS EXEBIO</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>19</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>HIDALGO CUBAS LUISA YVONE</t>
+          <t>ZEVALLOS PACHECO ZOILA XIMENA</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>19</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>FERNANDEZ VALDERAS ERNESTO ALI</t>
+          <t>CONTRERAS VALDERRAMA JULIA ALEJANDRA</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>18</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>ZEVALLOS PACHECO ZOILA XIMENA</t>
+          <t>FERNANDEZ VALDERAS ERNESTO ALI</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>17</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>GUTIERREZ CARLOS TERESA DE JESUS</t>
+          <t>VALLE MAGALLAN EDUAR</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10">
@@ -532,17 +532,17 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>VALLE MAGALLAN EDUAR</t>
+          <t>HUMPIRE CASTILLO IRWIN DEIMER</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12">
@@ -552,27 +552,27 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>14</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>HUMPIRE CASTILLO IRWIN DEIMER</t>
+          <t>BALLENA ESQUÉN ASTRID CAROLINA</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>14</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>ZAVALETA MANAY JORGE LUIS</t>
+          <t>GUTIERREZ CARLOS TERESA DE JESUS</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15">

--- a/data/data_monitoreo_la_colorada.xlsx
+++ b/data/data_monitoreo_la_colorada.xlsx
@@ -448,91 +448,91 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>ROMERO CHANAME YOSSELY TRINIDAD</t>
+          <t>FERNANDEZ VALDERAS ERNESTO ALI</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>42</v>
+        <v>105</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>ZAVALETA MANAY JORGE LUIS</t>
+          <t>CONTRERAS VALDERRAMA JULIA ALEJANDRA</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>40</v>
+        <v>89</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>HIDALGO CUBAS LUISA YVONE</t>
+          <t>VALLE MAGALLAN EDUAR</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>39</v>
+        <v>86</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>SENADOR ARBOLEDA GIANCARLOS EXEBIO</t>
+          <t>HIDALGO CUBAS LUISA YVONE</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>39</v>
+        <v>81</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>ZEVALLOS PACHECO ZOILA XIMENA</t>
+          <t>ROMERO CHANAME YOSSELY TRINIDAD</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>35</v>
+        <v>81</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>CONTRERAS VALDERRAMA JULIA ALEJANDRA</t>
+          <t>ZAVALETA MANAY JORGE LUIS</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>34</v>
+        <v>81</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>FERNANDEZ VALDERAS ERNESTO ALI</t>
+          <t>GUTIERREZ CARLOS TERESA DE JESUS</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>33</v>
+        <v>77</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>VALLE MAGALLAN EDUAR</t>
+          <t>CAMACHO LINARES JUDITH ARLETT</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>32</v>
+        <v>76</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>CAMACHO LINARES JUDITH ARLETT</t>
+          <t>BALLENA ESQUÉN ASTRID CAROLINA</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>30</v>
+        <v>73</v>
       </c>
     </row>
     <row r="11">
@@ -542,7 +542,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>30</v>
+        <v>73</v>
       </c>
     </row>
     <row r="12">
@@ -552,27 +552,27 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>29</v>
+        <v>73</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>BALLENA ESQUÉN ASTRID CAROLINA</t>
+          <t>SENADOR ARBOLEDA GIANCARLOS EXEBIO</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>21</v>
+        <v>71</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>GUTIERREZ CARLOS TERESA DE JESUS</t>
+          <t>ZEVALLOS PACHECO ZOILA XIMENA</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>16</v>
+        <v>70</v>
       </c>
     </row>
     <row r="15">

--- a/data/data_monitoreo_la_colorada.xlsx
+++ b/data/data_monitoreo_la_colorada.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>105</v>
+        <v>121</v>
       </c>
     </row>
     <row r="3">
@@ -462,27 +462,27 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>89</v>
+        <v>104</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>VALLE MAGALLAN EDUAR</t>
+          <t>GUTIERREZ CARLOS TERESA DE JESUS</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>86</v>
+        <v>103</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>HIDALGO CUBAS LUISA YVONE</t>
+          <t>ZAVALETA MANAY JORGE LUIS</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>81</v>
+        <v>96</v>
       </c>
     </row>
     <row r="6">
@@ -492,77 +492,77 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>81</v>
+        <v>95</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>ZAVALETA MANAY JORGE LUIS</t>
+          <t>HIDALGO CUBAS LUISA YVONE</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>81</v>
+        <v>95</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>GUTIERREZ CARLOS TERESA DE JESUS</t>
+          <t>SEVERINO AVALOS MARJORIE ISABEL</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>77</v>
+        <v>91</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>CAMACHO LINARES JUDITH ARLETT</t>
+          <t>SENADOR ARBOLEDA GIANCARLOS EXEBIO</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>76</v>
+        <v>88</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>BALLENA ESQUÉN ASTRID CAROLINA</t>
+          <t>HUMPIRE CASTILLO IRWIN DEIMER</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>73</v>
+        <v>87</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>HUMPIRE CASTILLO IRWIN DEIMER</t>
+          <t>BALLENA ESQUÉN ASTRID CAROLINA</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>73</v>
+        <v>87</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>SEVERINO AVALOS MARJORIE ISABEL</t>
+          <t>VALLE MAGALLAN EDUAR</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>73</v>
+        <v>86</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>SENADOR ARBOLEDA GIANCARLOS EXEBIO</t>
+          <t>CAMACHO LINARES JUDITH ARLETT</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>71</v>
+        <v>76</v>
       </c>
     </row>
     <row r="14">

--- a/data/data_monitoreo_la_colorada.xlsx
+++ b/data/data_monitoreo_la_colorada.xlsx
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>104</v>
+        <v>119</v>
       </c>
     </row>
     <row r="4">
@@ -478,91 +478,91 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>ZAVALETA MANAY JORGE LUIS</t>
+          <t>ROMERO CHANAME YOSSELY TRINIDAD</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>96</v>
+        <v>102</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>ROMERO CHANAME YOSSELY TRINIDAD</t>
+          <t>VALLE MAGALLAN EDUAR</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>95</v>
+        <v>102</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>HIDALGO CUBAS LUISA YVONE</t>
+          <t>ZAVALETA MANAY JORGE LUIS</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>95</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>SEVERINO AVALOS MARJORIE ISABEL</t>
+          <t>HIDALGO CUBAS LUISA YVONE</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>91</v>
+        <v>97</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>SENADOR ARBOLEDA GIANCARLOS EXEBIO</t>
+          <t>CAMACHO LINARES JUDITH ARLETT</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>88</v>
+        <v>93</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>HUMPIRE CASTILLO IRWIN DEIMER</t>
+          <t>SEVERINO AVALOS MARJORIE ISABEL</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>87</v>
+        <v>91</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>BALLENA ESQUÉN ASTRID CAROLINA</t>
+          <t>HUMPIRE CASTILLO IRWIN DEIMER</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>87</v>
+        <v>91</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>VALLE MAGALLAN EDUAR</t>
+          <t>SENADOR ARBOLEDA GIANCARLOS EXEBIO</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>86</v>
+        <v>91</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>CAMACHO LINARES JUDITH ARLETT</t>
+          <t>BALLENA ESQUÉN ASTRID CAROLINA</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>76</v>
+        <v>89</v>
       </c>
     </row>
     <row r="14">
@@ -572,7 +572,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>70</v>
+        <v>85</v>
       </c>
     </row>
     <row r="15">

--- a/data/data_monitoreo_la_colorada.xlsx
+++ b/data/data_monitoreo_la_colorada.xlsx
@@ -452,47 +452,47 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>121</v>
+        <v>136</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>CONTRERAS VALDERRAMA JULIA ALEJANDRA</t>
+          <t>GUTIERREZ CARLOS TERESA DE JESUS</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>119</v>
+        <v>131</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>GUTIERREZ CARLOS TERESA DE JESUS</t>
+          <t>CONTRERAS VALDERRAMA JULIA ALEJANDRA</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>103</v>
+        <v>120</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>ROMERO CHANAME YOSSELY TRINIDAD</t>
+          <t>VALLE MAGALLAN EDUAR</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>102</v>
+        <v>119</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>VALLE MAGALLAN EDUAR</t>
+          <t>ROMERO CHANAME YOSSELY TRINIDAD</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7">
@@ -512,7 +512,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="9">
@@ -528,17 +528,17 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>SEVERINO AVALOS MARJORIE ISABEL</t>
+          <t>HUMPIRE CASTILLO IRWIN DEIMER</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>HUMPIRE CASTILLO IRWIN DEIMER</t>
+          <t>SEVERINO AVALOS MARJORIE ISABEL</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -572,7 +572,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="15">

--- a/data/data_monitoreo_la_colorada.xlsx
+++ b/data/data_monitoreo_la_colorada.xlsx
@@ -448,21 +448,21 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>FERNANDEZ VALDERAS ERNESTO ALI</t>
+          <t>GUTIERREZ CARLOS TERESA DE JESUS</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>136</v>
+        <v>149</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>GUTIERREZ CARLOS TERESA DE JESUS</t>
+          <t>FERNANDEZ VALDERAS ERNESTO ALI</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>131</v>
+        <v>144</v>
       </c>
     </row>
     <row r="4">
@@ -472,7 +472,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>120</v>
+        <v>126</v>
       </c>
     </row>
     <row r="5">
@@ -482,23 +482,23 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>119</v>
+        <v>126</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>ROMERO CHANAME YOSSELY TRINIDAD</t>
+          <t>ZAVALETA MANAY JORGE LUIS</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>100</v>
+        <v>106</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>ZAVALETA MANAY JORGE LUIS</t>
+          <t>ROMERO CHANAME YOSSELY TRINIDAD</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -508,61 +508,61 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>HIDALGO CUBAS LUISA YVONE</t>
+          <t>CAMACHO LINARES JUDITH ARLETT</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>CAMACHO LINARES JUDITH ARLETT</t>
+          <t>HUMPIRE CASTILLO IRWIN DEIMER</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>93</v>
+        <v>99</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>HUMPIRE CASTILLO IRWIN DEIMER</t>
+          <t>SEVERINO AVALOS MARJORIE ISABEL</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>92</v>
+        <v>98</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>SEVERINO AVALOS MARJORIE ISABEL</t>
+          <t>HIDALGO CUBAS LUISA YVONE</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>91</v>
+        <v>98</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>SENADOR ARBOLEDA GIANCARLOS EXEBIO</t>
+          <t>BALLENA ESQUÉN ASTRID CAROLINA</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>BALLENA ESQUÉN ASTRID CAROLINA</t>
+          <t>SENADOR ARBOLEDA GIANCARLOS EXEBIO</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="14">
@@ -572,7 +572,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>83</v>
+        <v>88</v>
       </c>
     </row>
     <row r="15">

--- a/data/data_monitoreo_la_colorada.xlsx
+++ b/data/data_monitoreo_la_colorada.xlsx
@@ -448,41 +448,41 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>GUTIERREZ CARLOS TERESA DE JESUS</t>
+          <t>FERNANDEZ VALDERAS ERNESTO ALI</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>149</v>
+        <v>157</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>FERNANDEZ VALDERAS ERNESTO ALI</t>
+          <t>GUTIERREZ CARLOS TERESA DE JESUS</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>144</v>
+        <v>156</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>CONTRERAS VALDERRAMA JULIA ALEJANDRA</t>
+          <t>VALLE MAGALLAN EDUAR</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>126</v>
+        <v>138</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>VALLE MAGALLAN EDUAR</t>
+          <t>CONTRERAS VALDERRAMA JULIA ALEJANDRA</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>126</v>
+        <v>136</v>
       </c>
     </row>
     <row r="6">
@@ -492,27 +492,27 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>106</v>
+        <v>109</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>ROMERO CHANAME YOSSELY TRINIDAD</t>
+          <t>CAMACHO LINARES JUDITH ARLETT</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>100</v>
+        <v>107</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>CAMACHO LINARES JUDITH ARLETT</t>
+          <t>SEVERINO AVALOS MARJORIE ISABEL</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>99</v>
+        <v>106</v>
       </c>
     </row>
     <row r="9">
@@ -522,17 +522,17 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>SEVERINO AVALOS MARJORIE ISABEL</t>
+          <t>ROMERO CHANAME YOSSELY TRINIDAD</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="11">
@@ -548,31 +548,31 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>BALLENA ESQUÉN ASTRID CAROLINA</t>
+          <t>ZEVALLOS PACHECO ZOILA XIMENA</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>SENADOR ARBOLEDA GIANCARLOS EXEBIO</t>
+          <t>BALLENA ESQUÉN ASTRID CAROLINA</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>ZEVALLOS PACHECO ZOILA XIMENA</t>
+          <t>SENADOR ARBOLEDA GIANCARLOS EXEBIO</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>88</v>
+        <v>91</v>
       </c>
     </row>
     <row r="15">
